--- a/results.xlsx
+++ b/results.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -45,8 +45,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,200 +393,121 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="A1:J17"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C1" t="n">
-        <v>3</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>نام محصول</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>قیمت</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>لینک</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>تونر سنتلا واتر کوووزارک.سسس بدون الکل آبرسان اصل کره</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>738500</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>https://torob.com/p/62ad6a50-5000-4382-80fd-7ae862c368bf/%D8%AA%D9%88%D9%86%D8%B1-%D8%B3%D9%86%D8%AA%D9%84%D8%A7-%D9%88%D8%A7%D8%AA%D8%B1-%DA%A9%D9%88%D9%88%D9%88%D8%B2%D8%A7%D8%B1%DA%A9%D8%B3%D8%B3%D8%B3-%D8%A8%D8%AF%D9%88%D9%86-%D8%A7%D9%84%DA%A9%D9%84-%D8%A7%D8%A8%D8%B1%D8%B3%D8%A7%D9%86-%D8%A7%D8%B5%D9%84-%DA%A9%D8%B1%D9%87/</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>نوار تست قند خون اکیو چک اینستنت 50 عددی</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>230000</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>/p/5a95c5a7-4367-49d9-ad60-ce9448887194/%D9%86%D9%88%D8%A7%D8%B1-%D8%AA%D8%B3%D8%AA-%D9%82%D9%86%D8%AF-%D8%AE%D9%88%D9%86-%D8%A7%DA%A9%DB%8C%D9%88-%DA%86%DA%A9-%D8%A7%DB%8C%D9%86%D8%B3%D8%AA%D9%86%D8%AA-50-%D8%B9%D8%AF%D8%AF%DB%8C/</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
+      <c r="C4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>نام محصول</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>قیمت</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>لینک</t>
-        </is>
-      </c>
+      <c r="C5" s="1" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>تونر سنتلا واتر کوووزارک.سسس بدون الکل آبرسان اصل کره</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>738500</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>/p/62ad6a50-5000-4382-80fd-7ae862c368bf/%D8%AA%D9%88%D9%86%D8%B1-%D8%B3%D9%86%D8%AA%D9%84%D8%A7-%D9%88%D8%A7%D8%AA%D8%B1-%DA%A9%D9%88%D9%88%D9%88%D8%B2%D8%A7%D8%B1%DA%A9%D8%B3%D8%B3%D8%B3-%D8%A8%D8%AF%D9%88%D9%86-%D8%A7%D9%84%DA%A9%D9%84-%D8%A7%D8%A8%D8%B1%D8%B3%D8%A7%D9%86-%D8%A7%D8%B5%D9%84-%DA%A9%D8%B1%D9%87/</t>
-        </is>
-      </c>
+      <c r="C6" s="1" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>تونر سنتلا واتر کوووزارک.سسس بدون الکل آبرسان اصل کره</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>738500</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>/p/62ad6a50-5000-4382-80fd-7ae862c368bf/%D8%AA%D9%88%D9%86%D8%B1-%D8%B3%D9%86%D8%AA%D9%84%D8%A7-%D9%88%D8%A7%D8%AA%D8%B1-%DA%A9%D9%88%D9%88%D9%88%D8%B2%D8%A7%D8%B1%DA%A9%D8%B3%D8%B3%D8%B3-%D8%A8%D8%AF%D9%88%D9%86-%D8%A7%D9%84%DA%A9%D9%84-%D8%A7%D8%A8%D8%B1%D8%B3%D8%A7%D9%86-%D8%A7%D8%B5%D9%84-%DA%A9%D8%B1%D9%87/</t>
-        </is>
-      </c>
+      <c r="C7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>تونر سنتلا واتر کوووزارک.سسس بدون الکل آبرسان اصل کره</t>
+          <t>سمند LX مدل 1396 ا Samand LX EF7-petrol</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>738500</t>
+          <t>345000000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/p/62ad6a50-5000-4382-80fd-7ae862c368bf/%D8%AA%D9%88%D9%86%D8%B1-%D8%B3%D9%86%D8%AA%D9%84%D8%A7-%D9%88%D8%A7%D8%AA%D8%B1-%DA%A9%D9%88%D9%88%D9%88%D8%B2%D8%A7%D8%B1%DA%A9%D8%B3%D8%B3%D8%B3-%D8%A8%D8%AF%D9%88%D9%86-%D8%A7%D9%84%DA%A9%D9%84-%D8%A7%D8%A8%D8%B1%D8%B3%D8%A7%D9%86-%D8%A7%D8%B5%D9%84-%DA%A9%D8%B1%D9%87/</t>
+          <t>/p/d840f71c-c66c-45c3-bdd0-77269ab1d848/%D8%B3%D9%85%D9%86%D8%AF-lx-%D9%85%D8%AF%D9%84-1396/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>تونر سنتلا واتر کوووزارک.سسس بدون الکل آبرسان اصل کره</t>
+          <t>کيبورد باسيم لاجيتک مدل K120 با حروف فارسي</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>738500</t>
+          <t>750,000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/p/62ad6a50-5000-4382-80fd-7ae862c368bf/%D8%AA%D9%88%D9%86%D8%B1-%D8%B3%D9%86%D8%AA%D9%84%D8%A7-%D9%88%D8%A7%D8%AA%D8%B1-%DA%A9%D9%88%D9%88%D9%88%D8%B2%D8%A7%D8%B1%DA%A9%D8%B3%D8%B3%D8%B3-%D8%A8%D8%AF%D9%88%D9%86-%D8%A7%D9%84%DA%A9%D9%84-%D8%A7%D8%A8%D8%B1%D8%B3%D8%A7%D9%86-%D8%A7%D8%B5%D9%84-%DA%A9%D8%B1%D9%87/</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>تونر سنتلا واتر کوووزارک.سسس بدون الکل آبرسان اصل کره</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>738500</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>/p/62ad6a50-5000-4382-80fd-7ae862c368bf/%D8%AA%D9%88%D9%86%D8%B1-%D8%B3%D9%86%D8%AA%D9%84%D8%A7-%D9%88%D8%A7%D8%AA%D8%B1-%DA%A9%D9%88%D9%88%D9%88%D8%B2%D8%A7%D8%B1%DA%A9%D8%B3%D8%B3%D8%B3-%D8%A8%D8%AF%D9%88%D9%86-%D8%A7%D9%84%DA%A9%D9%84-%D8%A7%D8%A8%D8%B1%D8%B3%D8%A7%D9%86-%D8%A7%D8%B5%D9%84-%DA%A9%D8%B1%D9%87/</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>تونر سنتلا واتر کوووزارک.سسس بدون الکل آبرسان اصل کره</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>738500</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>/p/62ad6a50-5000-4382-80fd-7ae862c368bf/%D8%AA%D9%88%D9%86%D8%B1-%D8%B3%D9%86%D8%AA%D9%84%D8%A7-%D9%88%D8%A7%D8%AA%D8%B1-%DA%A9%D9%88%D9%88%D9%88%D8%B2%D8%A7%D8%B1%DA%A9%D8%B3%D8%B3%D8%B3-%D8%A8%D8%AF%D9%88%D9%86-%D8%A7%D9%84%DA%A9%D9%84-%D8%A7%D8%A8%D8%B1%D8%B3%D8%A7%D9%86-%D8%A7%D8%B5%D9%84-%DA%A9%D8%B1%D9%87/</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>نوار تست قند خون اکیو چک اینستنت 50 عددی</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>230000</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>/p/5a95c5a7-4367-49d9-ad60-ce9448887194/%D9%86%D9%88%D8%A7%D8%B1-%D8%AA%D8%B3%D8%AA-%D9%82%D9%86%D8%AF-%D8%AE%D9%88%D9%86-%D8%A7%DA%A9%DB%8C%D9%88-%DA%86%DA%A9-%D8%A7%DB%8C%D9%86%D8%B3%D8%AA%D9%86%D8%AA-50-%D8%B9%D8%AF%D8%AF%DB%8C/</t>
+          <t>/p/431570ec-2aad-41bc-b7b4-c809d637e896/%DA%A9%DB%8C%D8%A8%D9%88%D8%B1%D8%AF-%D8%A8%D8%A7%D8%B3%DB%8C%D9%85-%D9%84%D8%A7%D8%AC%DB%8C%D8%AA%DA%A9-%D9%85%D8%AF%D9%84-k120-%D8%A8%D8%A7-%D8%AD%D8%B1%D9%88%D9%81-%D9%81%D8%A7%D8%B1%D8%B3%DB%8C/</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>